--- a/pred_ohlcv/54_21/2019-10-24 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 OMG ohlcv.xlsx
@@ -5488,7 +5488,7 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>12648.09112325581</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>14028.84262325581</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>14276.63852325581</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>27145.29824529567</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>21308.27934529567</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>20774.22864529567</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>20670.22224529567</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>21001.82524529567</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>21431.32874529567</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>20373.10584529567</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>19863.10604529567</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>20376.08324529567</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>20111.58334529567</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>18008.22804529567</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>18860.64014529567</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>19076.31444529567</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>23568.32804529567</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>24462.27674529567</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>19763.90534529567</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>20658.04084529567</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>20992.00164529567</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>20158.62394529567</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>19778.62394529567</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>19783.55884529567</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>23449.40454529567</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>23470.94174529567</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>19276.21994529567</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>19151.31994529567</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>19137.10824529567</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>17678.18344529567</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>23845.38014529567</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 OMG ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>-228906.6446</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-228906.6446</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-228906.6446</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>12648.09112325581</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>12585.08852325581</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>12686.12852325581</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>12086.12852325581</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>14028.84262325581</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>14028.84262325581</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>14276.63852325581</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>13497.44162325581</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>13849.52204529567</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>13837.52204529567</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>13299.75624529567</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>13419.23924529567</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>13419.23924529567</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>14534.49434529567</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>13842.02994529567</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>13943.03924529567</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>13746.71744529567</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>13872.24194529567</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>17668.35194529567</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>18125.10844529567</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>18760.14054529567</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>19696.33244529567</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>27145.29824529567</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>21308.27934529567</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>20774.22864529567</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>20670.22224529567</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>21001.82524529567</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>21431.32874529567</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>20373.10584529567</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>19863.10604529567</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>20376.08324529567</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>20111.58334529567</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>18008.22804529567</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>18860.64014529567</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>19076.31444529567</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>23818.32804529567</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>24462.27674529567</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>19763.90534529567</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>20658.04084529567</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>20992.00164529567</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>20158.62394529567</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>19778.62394529567</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>19783.55884529567</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>23449.40454529567</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>23470.94174529567</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>19276.21994529567</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>19151.31994529567</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>19137.10824529567</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>17678.18344529567</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>23845.38014529567</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>24657.81974529566</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>24657.81974529566</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>24262.81974529566</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>24262.81974529566</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
